--- a/biology/Médecine/Gabriel_Bénichou/Gabriel_Bénichou.xlsx
+++ b/biology/Médecine/Gabriel_Bénichou/Gabriel_Bénichou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriel_B%C3%A9nichou</t>
+          <t>Gabriel_Bénichou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Bénichou (15 décembre 1926, Tlemcen (Algérie) est un juif français déporté à Auschwitz, puis transféré à l’intérieur du ghetto de Varsovie pour le nettoyage après la destruction de celui-ci jusqu’en août 1944. Il participe à la marche de la mort jusqu’à Kutno puis est transféré à Dachau. Il participe à une seconde marche de la mort jusqu'à Kaufering puis Landsberg (Allemagne) et Bad Tölz (Allemagne). Il est libéré le 2 mai 1945.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriel_B%C3%A9nichou</t>
+          <t>Gabriel_Bénichou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,23 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Bénichou est né le 15 décembre 1926 à Tlemcen en Algérie pendant la période coloniale française. Il est issu d'une famille juive française.
-Gabriel Bénichou est exclu de son collège en 1941 à cause des lois anti-juives de Vichy qui restreignent l’accès à l’enseignement scolaire aux juifs de France[1].
-Il arrive à Paris en 1941 pour poursuivre ses études[2].
-Arrestation et déportation
-Gabriel Bénichou a une sœur, Raymonde[3] Israël (née Bénichou) née le 3 juin 1915 à Tlemcen, en Algérie, mariée à Moïse Israël, né le 28 février 1911 à Ajaccio, qui habitent à Marseille[4]. Elle obtient l'acceptation de son frère au lycée Saint Charles. Il y passe les années scolaires 1941-1942 et 1942-1943[5].
-Il est arrêté le 8 avril 1943, à l'âge de 16 ans, par la police et enfermé à la prison Saint Pierre[6], jusqu'au 20 avril 1943[7].
-Il est interné au Camp de Drancy et déporté vers Auschwitz par le Convoi No. 57, en date du 18 juillet 1943[5]. Dans ce convoi, il y a sa sœur et son beau-frère[2]Moïse Israël, ce dernier survit à la Shoah[3]. Leur dernière adresse était au 102 boulevard de la Corderie à Marseille[8].
-En octobre 1943, il est transféré à l’intérieur du ghetto de Varsovie pour le nettoyage après la destruction de celui-ci jusqu’en août 1944. C'est le 1er convoi parti de la gare de Bobigny[3].
-Il participe à la marche de la mort jusqu’à Kutno puis est transféré à Dachau.
-Il participe à une seconde marche de la mort jusqu'à Kaufering puis Landsberg (Allemagne) et Bad Tölz (Allemagne).
-Il est libéré le 2 mai 1945.
-Il est rapatrié en métropole puis en Algérie. Sa sœur n’est pas revenue[9].
-Après la guerre
-Gabriel Bénichou devient un médecin, et fonde une famille.
-Il témoigne sur la Shoah[10],[11],[12].
+Gabriel Bénichou est exclu de son collège en 1941 à cause des lois anti-juives de Vichy qui restreignent l’accès à l’enseignement scolaire aux juifs de France.
+Il arrive à Paris en 1941 pour poursuivre ses études.
 </t>
         </is>
       </c>
@@ -538,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabriel_B%C3%A9nichou</t>
+          <t>Gabriel_Bénichou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,12 +555,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Honneurs</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Officier de la Légion d'honneur, 8 septembre 2016, à la mairie du 15e arrondissement de Paris.</t>
+          <t>Arrestation et déportation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Bénichou a une sœur, Raymonde Israël (née Bénichou) née le 3 juin 1915 à Tlemcen, en Algérie, mariée à Moïse Israël, né le 28 février 1911 à Ajaccio, qui habitent à Marseille. Elle obtient l'acceptation de son frère au lycée Saint Charles. Il y passe les années scolaires 1941-1942 et 1942-1943.
+Il est arrêté le 8 avril 1943, à l'âge de 16 ans, par la police et enfermé à la prison Saint Pierre, jusqu'au 20 avril 1943.
+Il est interné au Camp de Drancy et déporté vers Auschwitz par le Convoi No. 57, en date du 18 juillet 1943. Dans ce convoi, il y a sa sœur et son beau-frèreMoïse Israël, ce dernier survit à la Shoah. Leur dernière adresse était au 102 boulevard de la Corderie à Marseille.
+En octobre 1943, il est transféré à l’intérieur du ghetto de Varsovie pour le nettoyage après la destruction de celui-ci jusqu’en août 1944. C'est le 1er convoi parti de la gare de Bobigny.
+Il participe à la marche de la mort jusqu’à Kutno puis est transféré à Dachau.
+Il participe à une seconde marche de la mort jusqu'à Kaufering puis Landsberg (Allemagne) et Bad Tölz (Allemagne).
+Il est libéré le 2 mai 1945.
+Il est rapatrié en métropole puis en Algérie. Sa sœur n’est pas revenue.
+</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gabriel_B%C3%A9nichou</t>
+          <t>Gabriel_Bénichou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Après la guerre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Bénichou devient un médecin, et fonde une famille.
+Il témoigne sur la Shoah.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gabriel_Bénichou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabriel_B%C3%A9nichou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Officier de la Légion d'honneur, 8 septembre 2016, à la mairie du 15e arrondissement de Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gabriel_Bénichou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabriel_B%C3%A9nichou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gabriel Bénichou. L'ADOLESCENCE D'UN JUIF D'ALGÉRIE. Éditions Harmattan, 2004.  (ISBN 2747559386)</t>
         </is>
